--- a/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17276,7 +17277,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -17308,7 +17308,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -17340,7 +17339,6 @@
           <t>申万菱信安鑫慧选混合C</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>31.89</t>
@@ -17356,6 +17354,8182 @@
       </c>
       <c r="H158" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40.0612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>30.1928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>544.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.1521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.8972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7895</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6870</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2454</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5049</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2822</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1388</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8295</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001548</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘上证50指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3869</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001549</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘上证50指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010700</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红锦丰优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510710</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时上证50ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方红领先精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510800</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510100</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达上证50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510850</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>66.38</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004881</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000835</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华润元大富时中国A50指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003734</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>54.68</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>502048</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>512550</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>嘉实富时中国A50ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007781</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>天弘弘新混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>502006</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008240</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>502040</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长盛上证50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>42.94</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003735</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>万家瑞盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011023</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银汇利混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>54.11</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>54.11</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>73.04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>510600</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>申万菱信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>510860</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>兴业上证50ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>42.94</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008241</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>510680</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>万家上证50ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010311</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中银量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010573</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华润元大富时中国A50指数C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>012873</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012875</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37915,7 +37916,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -38075,6 +38075,106 @@
       </c>
       <c r="H330" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>329</v>
+      </c>
+      <c r="D2" t="n">
+        <v>186.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>214</v>
+      </c>
+      <c r="D3" t="n">
+        <v>162.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>159.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>210.87</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600030-中信证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D2" t="n">
-        <v>207.21</v>
+        <v>166.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="D3" t="n">
-        <v>212.07</v>
+        <v>207.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D4" t="n">
-        <v>221.42</v>
+        <v>212.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="D5" t="n">
-        <v>186.02</v>
+        <v>221.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="D6" t="n">
-        <v>162.11</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>159.67</v>
+        <v>162.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>159.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>286</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>210.87</v>
       </c>
     </row>
@@ -600,6 +617,8064 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>37.5762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>28.0251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>614.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.8433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.1009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.2283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.9273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.1190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安上证180ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>189.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8619</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9845</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9576</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6639</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5276</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4834</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4603</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1368</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1275</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9672</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8512</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7192</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6813</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>050002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>44.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6472</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>66.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝多策略增长A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5426</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001549</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘上证50指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001548</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘上证50指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达上证50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510800</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519300</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002385</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510710</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时上证50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>510850</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银上证50ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>502048</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012757</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证龙头企业指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信湾创ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>43.88</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008240</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>502006</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005225</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008241</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005294</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>诺德新宜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>502040</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长盛上证50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>510600</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>申万菱信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002717</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000992</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>广发对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>013174</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>银华华证ESG领先指数</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015614</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>516720</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛中证ESG120策略ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>510990</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银瑞信中证180ESGETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>510680</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>万家上证50ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002718</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>红塔红土盛隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015613</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝多策略增长C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>970090</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>970077</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012875</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>970078</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>016134</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>广发湾创100ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>43.88</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>970092</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012756</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>易方达中证龙头企业指数A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>970091</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>013031</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>民生加银中证800指数增强A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007096</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>大成沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>970079</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>013032</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>民生加银中证800指数增强C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012873</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>015582</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11699,7 +19774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25006,7 +33081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -38508,7 +46583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51051,7 +59126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -59227,7 +67302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -65228,7 +73303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
